--- a/docs/新規 Microsoft Excel ワークシート.xlsx
+++ b/docs/新規 Microsoft Excel ワークシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\army1\Code\kokusai-bunken-doc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6393A03-F54D-4D84-AECF-1D56855592F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59CD90-43B1-4FB3-9173-AB799006E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="237">
   <si>
     <t>大項目</t>
   </si>
@@ -1449,6 +1449,125 @@
   </si>
   <si>
     <t>`/api/*****`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信ー認証コード発行</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通費申請の認証コードが発行されました。</t>
+    <rPh sb="0" eb="5">
+      <t>コウツウヒシンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{name}さま
+以下の認証コードを画面に入力してください。
+認証コード：{secretCode}
+有効期限は{expireDate}までとなります。</t>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信ー認証コード発行ーパラメータ</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>secretCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>expireDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証コード</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6桁の数字、自動採番</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジドウサイバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学会利用者の氏名、前処理の入力情報を使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効期限</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日の日付時刻 + 24時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1574,9 +1693,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1587,6 +1703,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2075,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F104"/>
+  <dimension ref="A3:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3024,7 +3143,7 @@
       <c r="B94" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="10" t="s">
         <v>207</v>
       </c>
       <c r="D94" t="s">
@@ -3103,6 +3222,101 @@
     <row r="104" spans="1:4">
       <c r="B104" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="70.5">
+      <c r="B109" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" t="s">
+        <v>179</v>
+      </c>
+      <c r="D112" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3380,7 @@
       <c r="F5" t="s">
         <v>189</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3186,7 +3400,7 @@
       <c r="F6">
         <v>587</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3206,7 +3420,7 @@
       <c r="F7" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3226,7 +3440,7 @@
       <c r="F8" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3255,7 +3469,7 @@
       </c>
     </row>
     <row r="7" spans="2:46" ht="21.2" customHeight="1">
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>127</v>
       </c>
       <c r="K7" t="s">
@@ -3263,761 +3477,761 @@
       </c>
     </row>
     <row r="9" spans="2:46" ht="21.2" customHeight="1">
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="s">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4" t="s">
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4" t="s">
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
     </row>
     <row r="10" spans="2:46" ht="21.2" customHeight="1">
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>20</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <v>30</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
         <v>20</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
         <v>30</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>1</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
         <v>10</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
         <v>20</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4">
         <v>30</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>1</v>
       </c>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5">
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4">
         <v>10</v>
       </c>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5">
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4">
         <v>20</v>
       </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4">
         <v>30</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AG10" s="4">
         <v>1</v>
       </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5">
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4">
         <v>10</v>
       </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5">
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4">
         <v>20</v>
       </c>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5">
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4">
         <v>28</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AN10" s="4">
         <v>1</v>
       </c>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5">
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4">
         <v>10</v>
       </c>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5">
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4">
         <v>20</v>
       </c>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5">
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="10" t="s">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-    </row>
-    <row r="12" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B12" s="6" t="s">
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+    </row>
+    <row r="12" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-    </row>
-    <row r="13" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B13" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+    </row>
+    <row r="13" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-    </row>
-    <row r="14" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+    </row>
+    <row r="14" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
     </row>
     <row r="15" spans="2:46" ht="21.2" customHeight="1">
       <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="10" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="X15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="10" t="s">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
     </row>
     <row r="16" spans="2:46" ht="21.2" customHeight="1">
       <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-    </row>
-    <row r="17" spans="2:46" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="B17" s="6" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+    </row>
+    <row r="17" spans="2:46" s="5" customFormat="1" ht="21" customHeight="1">
+      <c r="B17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="10" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="W17" s="10" t="s">
+      <c r="W17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="10" t="s">
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AB17" s="10" t="s">
+      <c r="AB17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="7"/>
-    </row>
-    <row r="18" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B18" s="6" t="s">
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+    </row>
+    <row r="18" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
     </row>
     <row r="19" spans="2:46" ht="21.2" customHeight="1">
       <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="10" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AO19" s="10" t="s">
+      <c r="AO19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AP19" s="10" t="s">
+      <c r="AP19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AQ19" s="10" t="s">
+      <c r="AQ19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AR19" s="10" t="s">
+      <c r="AR19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AS19" s="10" t="s">
+      <c r="AS19" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AT19" s="5"/>
-    </row>
-    <row r="20" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B20" s="6" t="s">
+      <c r="AT19" s="4"/>
+    </row>
+    <row r="20" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
     </row>
     <row r="21" spans="2:46" ht="21.2" customHeight="1">
       <c r="B21" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="5"/>
-    </row>
-    <row r="22" spans="2:46" s="6" customFormat="1" ht="21.2" customHeight="1">
-      <c r="B22" s="6" t="s">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
+      <c r="AT21" s="4"/>
+    </row>
+    <row r="22" spans="2:46" s="5" customFormat="1" ht="21.2" customHeight="1">
+      <c r="B22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN9:AT9"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:R9"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="AG9:AM9"/>
-    <mergeCell ref="AN9:AT9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/新規 Microsoft Excel ワークシート.xlsx
+++ b/docs/新規 Microsoft Excel ワークシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\army1\Code\kokusai-bunken-doc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59CD90-43B1-4FB3-9173-AB799006E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D7AE4F-E227-4219-8142-5577B255F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -3454,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5851BC-003B-4C4D-9692-90CAA6F7529E}">
   <dimension ref="B5:AT22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4375" defaultRowHeight="21.2" customHeight="1"/>

--- a/docs/新規 Microsoft Excel ワークシート.xlsx
+++ b/docs/新規 Microsoft Excel ワークシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\army1\Code\kokusai-bunken-doc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D7AE4F-E227-4219-8142-5577B255F6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7806E8E-0A52-407C-8F21-E6CA0EA3BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3455,7 +3455,7 @@
   <dimension ref="B5:AT22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.4375" defaultRowHeight="21.2" customHeight="1"/>

--- a/docs/新規 Microsoft Excel ワークシート.xlsx
+++ b/docs/新規 Microsoft Excel ワークシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\army1\Code\kokusai-bunken-doc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7806E8E-0A52-407C-8F21-E6CA0EA3BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7372E-9E33-47E3-8096-1A298474A44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3024" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="310">
   <si>
     <t>大項目</t>
   </si>
@@ -1570,12 +1570,547 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請を行う方の氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者フォーム</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請を行う方の所属</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス（読み取り専用）</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急連絡先</t>
+    <rPh sb="0" eb="5">
+      <t>キンキュウレンラクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面コンポーネント</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input(readonly)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急連絡先（備考欄）</t>
+    <rPh sb="0" eb="5">
+      <t>キンキュウレンラクサキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ビコウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値=今日の日付</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者区分</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交通手段</t>
+    <rPh sb="0" eb="4">
+      <t>コウツウシュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師 (teacher)/ スタッフ (staff)　※括弧書きはvalue</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カッコ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車(train) / バス(bus) / タクシー(taxi) / 飛行機 (plane)</t>
+    <rPh sb="0" eb="2">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数設定可能</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emergencyContact</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出発地</t>
+    <rPh sb="0" eb="3">
+      <t>シュッパツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到着地</t>
+    <rPh sb="0" eb="2">
+      <t>トウチャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startingPoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endingPoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>区間・経路</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>way</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金融機関名</t>
+    <rPh sb="0" eb="5">
+      <t>キンユウキカンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="3">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branchName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗り換え区間・路線などを記載</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額を入力</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>到着地</t>
+    <rPh sb="0" eb="3">
+      <t>トウチャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <rPh sb="0" eb="4">
+      <t>コウザバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bankNumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座名義</t>
+    <rPh sb="0" eb="4">
+      <t>コウザメイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>accountName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※赤字は管理者が入力する項目とする</t>
+    <rPh sb="1" eb="3">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象日</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adminMessage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者へのメッセージ</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の金融機関名</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キンユウキカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の支店名</t>
+    <rPh sb="4" eb="7">
+      <t>シテンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の口座番号</t>
+    <rPh sb="4" eb="8">
+      <t>コウザバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者の名義人の名前</t>
+    <rPh sb="4" eb="7">
+      <t>メイギニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>申請者フォーム―バリデーション</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック項目</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須であること</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須であること / メールアドレスの形式であること</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須であること / 日付形式であること</t>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同意書</t>
+    <rPh sb="0" eb="3">
+      <t>ドウイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>consentForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FileUpload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードは即時実施し、戻りのURLを返却</t>
+    <rPh sb="7" eb="9">
+      <t>ソクジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +2162,29 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1682,7 +2240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1707,6 +2265,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2194,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F114"/>
+  <dimension ref="A3:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -2207,6 +2769,7 @@
     <col min="4" max="4" width="29.9375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -3297,7 +3860,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="1:8">
       <c r="B113" t="s">
         <v>232</v>
       </c>
@@ -3308,7 +3871,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="1:8">
       <c r="B114" t="s">
         <v>235</v>
       </c>
@@ -3317,6 +3880,683 @@
       </c>
       <c r="D114" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E117" t="s">
+        <v>239</v>
+      </c>
+      <c r="F117" t="s">
+        <v>238</v>
+      </c>
+      <c r="G117" t="s">
+        <v>248</v>
+      </c>
+      <c r="H117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E118" t="s">
+        <v>240</v>
+      </c>
+      <c r="F118" t="s">
+        <v>241</v>
+      </c>
+      <c r="G118" t="s">
+        <v>249</v>
+      </c>
+      <c r="H118" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E119" t="s">
+        <v>240</v>
+      </c>
+      <c r="F119" t="s">
+        <v>241</v>
+      </c>
+      <c r="G119" t="s">
+        <v>249</v>
+      </c>
+      <c r="H119" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="B120" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E120" t="s">
+        <v>240</v>
+      </c>
+      <c r="F120" t="s">
+        <v>241</v>
+      </c>
+      <c r="G120" t="s">
+        <v>250</v>
+      </c>
+      <c r="H120" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H121" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="B122" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="F122" t="s">
+        <v>241</v>
+      </c>
+      <c r="G122" t="s">
+        <v>251</v>
+      </c>
+      <c r="H122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" t="s">
+        <v>265</v>
+      </c>
+      <c r="F123" t="s">
+        <v>241</v>
+      </c>
+      <c r="G123" t="s">
+        <v>251</v>
+      </c>
+      <c r="H123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" t="s">
+        <v>266</v>
+      </c>
+      <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
+        <v>241</v>
+      </c>
+      <c r="G124" t="s">
+        <v>257</v>
+      </c>
+      <c r="H124" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="B125" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" t="s">
+        <v>96</v>
+      </c>
+      <c r="D125" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
+        <v>261</v>
+      </c>
+      <c r="H125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="B126" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" t="s">
+        <v>269</v>
+      </c>
+      <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
+        <v>241</v>
+      </c>
+      <c r="G126" t="s">
+        <v>257</v>
+      </c>
+      <c r="H126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" t="s">
+        <v>272</v>
+      </c>
+      <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
+        <v>241</v>
+      </c>
+      <c r="G127" t="s">
+        <v>249</v>
+      </c>
+      <c r="H127" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="B128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G128" t="s">
+        <v>249</v>
+      </c>
+      <c r="H128" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>306</v>
+      </c>
+      <c r="D130" t="s">
+        <v>307</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="s">
+        <v>278</v>
+      </c>
+      <c r="D131" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131" t="s">
+        <v>240</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G131" t="s">
+        <v>249</v>
+      </c>
+      <c r="H131" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="B132" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" t="s">
+        <v>96</v>
+      </c>
+      <c r="D132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E132" t="s">
+        <v>240</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G132" t="s">
+        <v>249</v>
+      </c>
+      <c r="H132" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" t="s">
+        <v>240</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G133" t="s">
+        <v>249</v>
+      </c>
+      <c r="H133" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" t="s">
+        <v>96</v>
+      </c>
+      <c r="D134" t="s">
+        <v>288</v>
+      </c>
+      <c r="E134" t="s">
+        <v>240</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" t="s">
+        <v>290</v>
+      </c>
+      <c r="E135" t="s">
+        <v>240</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="s">
+        <v>237</v>
+      </c>
+      <c r="D140" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="B142" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="B143" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" t="s">
+        <v>247</v>
+      </c>
+      <c r="C146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" t="s">
+        <v>96</v>
+      </c>
+      <c r="D147" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" t="s">
+        <v>258</v>
+      </c>
+      <c r="C148" t="s">
+        <v>96</v>
+      </c>
+      <c r="D148" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" t="s">
+        <v>268</v>
+      </c>
+      <c r="C149" t="s">
+        <v>258</v>
+      </c>
+      <c r="D149" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" t="s">
+        <v>268</v>
+      </c>
+      <c r="C150" t="s">
+        <v>270</v>
+      </c>
+      <c r="D150" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" t="s">
+        <v>271</v>
+      </c>
+      <c r="D151" t="s">
+        <v>273</v>
+      </c>
+      <c r="F151" s="13"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152" t="s">
+        <v>274</v>
+      </c>
+      <c r="D152" t="s">
+        <v>275</v>
+      </c>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" t="s">
+        <v>268</v>
+      </c>
+      <c r="C153" t="s">
+        <v>306</v>
+      </c>
+      <c r="D153" t="s">
+        <v>307</v>
+      </c>
+      <c r="F153" s="13"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" t="s">
+        <v>263</v>
+      </c>
+      <c r="C154" t="s">
+        <v>278</v>
+      </c>
+      <c r="D154" t="s">
+        <v>279</v>
+      </c>
+      <c r="F154" s="13"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" t="s">
+        <v>96</v>
+      </c>
+      <c r="D155" t="s">
+        <v>280</v>
+      </c>
+      <c r="F155" s="13"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" t="s">
+        <v>282</v>
+      </c>
+      <c r="C156" t="s">
+        <v>96</v>
+      </c>
+      <c r="D156" t="s">
+        <v>283</v>
+      </c>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" t="s">
+        <v>96</v>
+      </c>
+      <c r="D157" t="s">
+        <v>288</v>
+      </c>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>289</v>
+      </c>
+      <c r="C158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D158" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +4694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5851BC-003B-4C4D-9692-90CAA6F7529E}">
   <dimension ref="B5:AT22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
